--- a/target/test-classes/testData/Data1.xlsx
+++ b/target/test-classes/testData/Data1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Address</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Harsh</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D7F50B-D105-C344-B9A8-A481DA54DB37}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -452,9 +458,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.83203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="29.1640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="26.1640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -505,6 +511,14 @@
       </c>
       <c r="B4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
